--- a/QA/QAP001_APF_RA003_需求明細表.xlsx
+++ b/QA/QAP001_APF_RA003_需求明細表.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="469">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2472,10 +2472,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>若不需履歷的設計方式,要特別標註</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>人員資料查詢開窗設計,各系統畫面及欄位需一致</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2570,11 +2566,150 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>己增加標註</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>會請各模組Follow遵守提出內容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infra 方式設計</t>
+  </si>
+  <si>
+    <t>系統依config設定顯示其餘區塊資訊(ex:異常警示)設定方式應詳細說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充於處理規則5.3，補充說明系統參數設定預設以web.config方式設定，不以DB方式處理。
+(項次2-APF0001)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者重複登入時，若選擇自行登出，請速達提供提示方式或訊息</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑馬燈訊息顯示，可能依不同單位顯示不同的跑馬燈內容，需確認議題</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色功能清單對應，設定可查詢權限部分說明補充</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢表示可列印，列印指列印PDF檔案，匯出時可能是txt或excel檔案
+(項次6-APF0202)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色可查詢組織對應，選擇組織補充說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇組織時，補充說明是該選取組織及下轄單位
+(項次7-APF0203)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定密碼發生模式改為多(至少三個月要改一次)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列說明事項
+(項次8-APF0301)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定密碼作業執行者改為全公司使用者</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Management請速達評估</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>李仕國</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕國、懿信、慕霖、清翔、業譚、增賢、芳妤、QA TEAM 1人</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-3</t>
+  </si>
+  <si>
+    <t>若不需履歷的設計方式,要特別標註</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將於設計階段增加標註</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用帳號、登入驗證碼等資安議題，需告知速達資安風險可能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>均有提出且會列於會議紀錄之中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將於[異常警示]模組需求訪談中提出討論</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效人員若能成功認證ID/PW， 應將此類錯誤登入訊息記錄於log中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將再與速達討論訊息內容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入紀錄分為2筆，此類狀況即表示僅有驗證成功而無生失效成功Log，以現有Log即可查得</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能分析</t>
+  </si>
+  <si>
+    <t>業譚</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將列於保存期限需求中，如保存要求為5年，需請Infra於規劃時納入考量，有需要Infra應再向速達提出</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -4671,10 +4806,10 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4803,27 +4938,27 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>22.666666666666671</v>
+        <v>37.333333333333329</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -5011,36 +5146,63 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="1" t="str">
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="49.5">
+      <c r="A9" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="1">
         <f ca="1">IF(A9="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B9,,-1,,),OFFSET(B9,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="63" t="str">
+        <v>3</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="140" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="66">
+        <v>41528</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" s="66">
+        <v>41528</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="J9" s="65">
+        <v>8</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="M9" s="70">
+        <f>IF(C9="","",J9*(I9-H9)*24)</f>
+        <v>14.666666666666657</v>
+      </c>
+      <c r="N9" s="63">
         <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
-        <v/>
-      </c>
-      <c r="O9" s="63" t="str">
+        <v>10</v>
+      </c>
+      <c r="O9" s="63">
         <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="P9" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q9" s="71"/>
+        <f t="shared" ref="P9" si="1">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
+        <v>SA PM</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>457</v>
+      </c>
       <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
@@ -5060,7 +5222,7 @@
       <c r="K10" s="68"/>
       <c r="L10" s="69"/>
       <c r="M10" s="70" t="str">
-        <f t="shared" ref="M10:M20" si="1">IF(C10="","",J10*(I10-H10)*24)</f>
+        <f t="shared" ref="M10:M20" si="2">IF(C10="","",J10*(I10-H10)*24)</f>
         <v/>
       </c>
       <c r="N10" s="63" t="str">
@@ -5076,7 +5238,7 @@
         <v/>
       </c>
       <c r="Q10" s="71" t="str">
-        <f t="shared" ref="Q10:Q20" ca="1" si="2">IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
+        <f t="shared" ref="Q10:Q20" ca="1" si="3">IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
         <v/>
       </c>
       <c r="R10" s="74"/>
@@ -5098,7 +5260,7 @@
       <c r="K11" s="68"/>
       <c r="L11" s="69"/>
       <c r="M11" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="63" t="str">
@@ -5136,7 +5298,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5148,11 +5310,11 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="3">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P12:P20" ca="1" si="4">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="R12" s="74"/>
@@ -5174,7 +5336,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5186,11 +5348,11 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q13" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R13" s="74"/>
@@ -5212,7 +5374,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5224,11 +5386,11 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q14" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q14" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R14" s="74"/>
@@ -5250,7 +5412,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5262,7 +5424,7 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q15" s="71" t="str">
@@ -5288,7 +5450,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5300,11 +5462,11 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q16" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
@@ -5326,7 +5488,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5338,11 +5500,11 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q17" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
@@ -5364,7 +5526,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5376,11 +5538,11 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q18" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
@@ -5402,7 +5564,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
       <c r="M19" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N19" s="63" t="str">
@@ -5414,11 +5576,11 @@
         <v/>
       </c>
       <c r="P19" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q19" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R19" s="74"/>
@@ -5440,7 +5602,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="69"/>
       <c r="M20" s="70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N20" s="63" t="str">
@@ -5452,11 +5614,11 @@
         <v/>
       </c>
       <c r="P20" s="71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q20" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="Q20" s="71" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R20" s="74"/>
@@ -5994,13 +6156,13 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6110,7 +6272,7 @@
         <v>386</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>392</v>
@@ -6126,11 +6288,11 @@
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3:K20" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K19" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
-        <f t="shared" ref="L3:L20" si="1">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
+        <f t="shared" ref="L3:L19" si="1">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M3" s="90"/>
@@ -6155,7 +6317,7 @@
         <v>386</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>392</v>
@@ -6191,10 +6353,10 @@
         <v>401</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>398</v>
@@ -6203,7 +6365,7 @@
         <v>399</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H5" s="91">
         <v>41523</v>
@@ -6235,13 +6397,13 @@
         <v>404</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>392</v>
@@ -6273,16 +6435,16 @@
         <v>403</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>392</v>
@@ -6311,22 +6473,22 @@
         <v>394</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>406</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H8" s="91">
         <v>41527</v>
@@ -6352,19 +6514,19 @@
         <v>394</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>392</v>
@@ -6393,19 +6555,19 @@
         <v>394</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>405</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>392</v>
@@ -6434,19 +6596,19 @@
         <v>394</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>392</v>
@@ -6458,7 +6620,7 @@
         <v>41527</v>
       </c>
       <c r="J11" s="89" t="str">
-        <f t="shared" ref="J11:J20" si="4">IF(I11="","","V")</f>
+        <f t="shared" ref="J11:J19" si="4">IF(I11="","","V")</f>
         <v>V</v>
       </c>
       <c r="K11" s="89" t="str">
@@ -6479,19 +6641,19 @@
         <v>394</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>392</v>
@@ -6524,19 +6686,19 @@
         <v>394</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>398</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>392</v>
@@ -6569,13 +6731,13 @@
         <v>394</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>386</v>
@@ -6610,18 +6772,34 @@
       <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="A15" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>466</v>
+      </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
+      <c r="H15" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I15" s="91">
+        <v>41528</v>
+      </c>
       <c r="J15" s="89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K15" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6629,7 +6807,7 @@
       </c>
       <c r="L15" s="90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M15" s="90"/>
       <c r="N15" s="36"/>
@@ -6637,14 +6815,28 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
+      <c r="A16" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>413</v>
+      </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="91"/>
+      <c r="H16" s="91">
+        <v>41531</v>
+      </c>
       <c r="I16" s="91"/>
       <c r="J16" s="89" t="str">
         <f t="shared" si="4"/>
@@ -6652,11 +6844,11 @@
       </c>
       <c r="K16" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="L16" s="90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M16" s="90"/>
       <c r="N16" s="36"/>
@@ -6664,18 +6856,34 @@
       <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44"/>
+      <c r="A17" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>413</v>
+      </c>
       <c r="G17" s="46"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
+      <c r="H17" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I17" s="91">
+        <v>41528</v>
+      </c>
       <c r="J17" s="89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K17" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6683,7 +6891,7 @@
       </c>
       <c r="L17" s="90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M17" s="90"/>
       <c r="N17" s="36"/>
@@ -6691,18 +6899,34 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
+      <c r="A18" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I18" s="91">
+        <v>41528</v>
+      </c>
       <c r="J18" s="89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K18" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6710,7 +6934,7 @@
       </c>
       <c r="L18" s="90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M18" s="90"/>
       <c r="N18" s="36"/>
@@ -6718,18 +6942,34 @@
       <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="A19" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>466</v>
+      </c>
       <c r="G19" s="44"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
+      <c r="H19" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I19" s="91">
+        <v>41528</v>
+      </c>
       <c r="J19" s="89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K19" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6737,7 +6977,7 @@
       </c>
       <c r="L19" s="90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M19" s="90"/>
       <c r="N19" s="36"/>
@@ -6745,26 +6985,42 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="A20" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="91">
+        <v>41531</v>
+      </c>
+      <c r="I20" s="91">
+        <v>41529</v>
+      </c>
       <c r="J20" s="89" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="J20:J46" si="5">IF(I20="","","V")</f>
+        <v>V</v>
       </c>
       <c r="K20" s="89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K20:K46" si="6">IF(OR(J20&lt;&gt;"",C20=""),"","V")</f>
         <v/>
       </c>
       <c r="L20" s="90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ref="L20:L46" si="7">IF(A20="","",LEFT(A20,FIND("-",A20)-1))</f>
+        <v>SA PM</v>
       </c>
       <c r="M20" s="90"/>
       <c r="N20" s="36"/>
@@ -6772,26 +7028,42 @@
       <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
+      <c r="A21" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="91">
+        <v>41529</v>
+      </c>
+      <c r="I21" s="92">
+        <v>41529</v>
+      </c>
       <c r="J21" s="89" t="str">
-        <f t="shared" ref="J21:J52" si="5">IF(I21="","","V")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>V</v>
       </c>
       <c r="K21" s="89" t="str">
-        <f t="shared" ref="K21:K52" si="6">IF(OR(J21&lt;&gt;"",C21=""),"","V")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L21" s="90" t="str">
-        <f t="shared" ref="L21:L52" si="7">IF(A21="","",LEFT(A21,FIND("-",A21)-1))</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SA PM</v>
       </c>
       <c r="M21" s="90"/>
       <c r="N21" s="36"/>
@@ -6799,18 +7071,34 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="A22" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I22" s="91">
+        <v>41528</v>
+      </c>
       <c r="J22" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K22" s="89" t="str">
         <f t="shared" si="6"/>
@@ -6818,7 +7106,7 @@
       </c>
       <c r="L22" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M22" s="90"/>
       <c r="N22" s="36"/>
@@ -6826,18 +7114,34 @@
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>391</v>
+      </c>
       <c r="G23" s="46"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+      <c r="H23" s="91">
+        <v>41528</v>
+      </c>
+      <c r="I23" s="91">
+        <v>41528</v>
+      </c>
       <c r="J23" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K23" s="89" t="str">
         <f t="shared" si="6"/>
@@ -6845,7 +7149,7 @@
       </c>
       <c r="L23" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M23" s="90"/>
       <c r="N23" s="36"/>
@@ -6853,26 +7157,40 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
+      <c r="A24" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>431</v>
+      </c>
       <c r="G24" s="46"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="H24" s="91">
+        <v>41531</v>
+      </c>
+      <c r="I24" s="92"/>
       <c r="J24" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" s="89" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="L24" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M24" s="90"/>
       <c r="N24" s="36"/>
@@ -6882,7 +7200,7 @@
     <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="43"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -6909,7 +7227,7 @@
     <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="43"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -6961,7 +7279,7 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="41"/>
       <c r="C28" s="48"/>
       <c r="D28" s="43"/>
@@ -6988,7 +7306,7 @@
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
       <c r="D29" s="43"/>
@@ -6996,7 +7314,7 @@
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7015,7 +7333,7 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
       <c r="D30" s="43"/>
@@ -7023,7 +7341,7 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7042,7 +7360,7 @@
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
       <c r="D31" s="43"/>
@@ -7050,7 +7368,7 @@
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
       <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7069,7 +7387,7 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
       <c r="D32" s="43"/>
@@ -7077,7 +7395,7 @@
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
       <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7096,7 +7414,7 @@
       <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
       <c r="D33" s="43"/>
@@ -7104,7 +7422,7 @@
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
       <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
+      <c r="I33" s="91"/>
       <c r="J33" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7131,7 +7449,7 @@
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
       <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="91"/>
       <c r="J34" s="89" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -7484,15 +7802,15 @@
       <c r="H47" s="92"/>
       <c r="I47" s="91"/>
       <c r="J47" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J47:J55" si="8">IF(I47="","","V")</f>
         <v/>
       </c>
       <c r="K47" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K47:K55" si="9">IF(OR(J47&lt;&gt;"",C47=""),"","V")</f>
         <v/>
       </c>
       <c r="L47" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L47:L55" si="10">IF(A47="","",LEFT(A47,FIND("-",A47)-1))</f>
         <v/>
       </c>
       <c r="M47" s="90"/>
@@ -7511,15 +7829,15 @@
       <c r="H48" s="92"/>
       <c r="I48" s="91"/>
       <c r="J48" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K48" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L48" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M48" s="90"/>
@@ -7538,15 +7856,15 @@
       <c r="H49" s="92"/>
       <c r="I49" s="91"/>
       <c r="J49" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K49" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L49" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M49" s="90"/>
@@ -7565,15 +7883,15 @@
       <c r="H50" s="92"/>
       <c r="I50" s="91"/>
       <c r="J50" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K50" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L50" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M50" s="90"/>
@@ -7592,15 +7910,15 @@
       <c r="H51" s="92"/>
       <c r="I51" s="91"/>
       <c r="J51" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K51" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L51" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M51" s="90"/>
@@ -7619,15 +7937,15 @@
       <c r="H52" s="92"/>
       <c r="I52" s="91"/>
       <c r="J52" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K52" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L52" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M52" s="90"/>
@@ -7646,15 +7964,15 @@
       <c r="H53" s="92"/>
       <c r="I53" s="91"/>
       <c r="J53" s="89" t="str">
-        <f t="shared" ref="J53:J61" si="8">IF(I53="","","V")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K53" s="89" t="str">
-        <f t="shared" ref="K53:K61" si="9">IF(OR(J53&lt;&gt;"",C53=""),"","V")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L53" s="90" t="str">
-        <f t="shared" ref="L53:L61" si="10">IF(A53="","",LEFT(A53,FIND("-",A53)-1))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M53" s="90"/>
@@ -7717,166 +8035,124 @@
       <c r="P55" s="22"/>
     </row>
     <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K56" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L56" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M56" s="90"/>
-      <c r="N56" s="36"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
     </row>
     <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A57" s="47"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K57" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L57" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M57" s="90"/>
-      <c r="N57" s="36"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
     </row>
     <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A58" s="47"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K58" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L58" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M58" s="90"/>
-      <c r="N58" s="36"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
     </row>
     <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A59" s="47"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K59" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L59" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M59" s="90"/>
-      <c r="N59" s="36"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
     </row>
     <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A60" s="47"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K60" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L60" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M60" s="90"/>
-      <c r="N60" s="36"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
     </row>
     <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A61" s="47"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K61" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L61" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M61" s="90"/>
-      <c r="N61" s="36"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
     </row>
     <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A62" s="86"/>
@@ -8858,164 +9134,44 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="22"/>
     </row>
-    <row r="111" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A111" s="86"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="88"/>
+    <row r="111" spans="1:18" ht="31.15" customHeight="1">
       <c r="I111" s="88"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-    </row>
-    <row r="112" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A112" s="86"/>
-      <c r="B112" s="86"/>
-      <c r="C112" s="86"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="88"/>
+    </row>
+    <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-    </row>
-    <row r="113" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A113" s="86"/>
-      <c r="B113" s="86"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="87"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="88"/>
+    </row>
+    <row r="113" spans="9:9" ht="31.15" customHeight="1">
       <c r="I113" s="88"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-    </row>
-    <row r="114" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A114" s="86"/>
-      <c r="B114" s="86"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="87"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="88"/>
+    </row>
+    <row r="114" spans="9:9" ht="31.15" customHeight="1">
       <c r="I114" s="88"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-    </row>
-    <row r="115" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A115" s="86"/>
-      <c r="B115" s="86"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="87"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="88"/>
+    </row>
+    <row r="115" spans="9:9" ht="31.15" customHeight="1">
       <c r="I115" s="88"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-    </row>
-    <row r="116" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A116" s="86"/>
-      <c r="B116" s="86"/>
-      <c r="C116" s="86"/>
-      <c r="D116" s="87"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="88"/>
+    </row>
+    <row r="116" spans="9:9" ht="31.15" customHeight="1">
       <c r="I116" s="88"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-    </row>
-    <row r="117" spans="1:18" ht="31.15" customHeight="1">
+    </row>
+    <row r="117" spans="9:9" ht="31.15" customHeight="1">
       <c r="I117" s="88"/>
-    </row>
-    <row r="118" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I118" s="88"/>
-    </row>
-    <row r="119" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I119" s="88"/>
-    </row>
-    <row r="120" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I120" s="88"/>
-    </row>
-    <row r="121" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I121" s="88"/>
-    </row>
-    <row r="122" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I122" s="88"/>
-    </row>
-    <row r="123" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I123" s="88"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62:C72 D73:E116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56:C66 D67:E110">
       <formula1>"需求,分析,資安,設計,測試,規範,SLA,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K55">
       <formula1>"V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A55">
       <formula1>次數選單</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65522">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65516">
       <formula1>植入Bug來源</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65522">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65516">
       <formula1>原因分類</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/QAP001_APF_RA003_需求明細表.xlsx
+++ b/QA/QAP001_APF_RA003_需求明細表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="180" windowWidth="10920" windowHeight="5700" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1401" yWindow="183" windowWidth="10918" windowHeight="5695" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="486">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2419,9 +2419,6 @@
     <t>系統分析</t>
   </si>
   <si>
-    <t>理解不足</t>
-  </si>
-  <si>
     <t>處理規則如有項目1下方有1.1.需空白2格作為識別</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2443,9 +2440,6 @@
   <si>
     <t>傳勝</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>標準化規範</t>
   </si>
   <si>
     <t>V</t>
@@ -2508,12 +2502,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>需求確認</t>
-  </si>
-  <si>
-    <t>溝通miss</t>
-  </si>
-  <si>
     <t>設計miss</t>
   </si>
   <si>
@@ -2568,9 +2556,6 @@
   <si>
     <t>會請各模組Follow遵守提出內容</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infra 方式設計</t>
   </si>
   <si>
     <t>系統依config設定顯示其餘區塊資訊(ex:異常警示)設定方式應詳細說明</t>
@@ -2603,114 +2588,193 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>設定密碼發生模式改為多(至少三個月要改一次)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定密碼作業執行者改為全公司使用者</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>李仕國</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕國、懿信、慕霖、清翔、業譚、增賢、芳妤、QA TEAM 1人</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-3</t>
+  </si>
+  <si>
+    <t>若不需履歷的設計方式,要特別標註</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將於設計階段增加標註</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用帳號、登入驗證碼等資安議題，需告知速達資安風險可能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>均有提出且會列於會議紀錄之中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將於[異常警示]模組需求訪談中提出討論</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效人員若能成功認證ID/PW， 應將此類錯誤登入訊息記錄於log中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將再與速達討論訊息內容</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入紀錄分為2筆，此類狀況即表示僅有驗證成功而無生失效成功Log，以現有Log即可查得</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>業譚</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將列於保存期限需求中，如保存要求為5年，需請Infra於規劃時納入考量，有需要Infra應再向速達提出</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕國、懿信、英杰、慕霖、清翔、傳勝、增賢、芳妤</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-4</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Log紀錄保存方式補充說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色維護保存期限補充說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA003補充註記，某些功能需做移轉計畫，避免遺忘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱轉入欄位，沒有生失效欄位</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>組織查詢範圍，須經常連結主檔查詢資料，有效能議題，須註記</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>選擇組織時，補充說明是該選取組織及下轄單位
 (項次7-APF0203)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>設定密碼發生模式改為多(至少三個月要改一次)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>如左列說明事項
-(項次8-APF0301)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定密碼作業執行者改為全公司使用者</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>如左列說明事項</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列說明事項(項次12-APF0501)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理規則3.1、5.2移除生失效欄位(項次11-APF0402)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>將資料量欄位說明改為：其餘媒體備份保存5年
+(項次2-APF0001)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存期限說明補充新增：依Infra備份Policy而定
+(項次3-APF0101)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列說明事項(項次8-APF0301)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>表達不清楚</t>
+  </si>
+  <si>
+    <t>考慮不足</t>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
+    <t>系統安全設計</t>
+  </si>
+  <si>
+    <t>運用方針檢討</t>
   </si>
   <si>
     <t>Log Management請速達評估</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>李仕國</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>陳慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕國、懿信、慕霖、清翔、業譚、增賢、芳妤、QA TEAM 1人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SA PM-3</t>
-  </si>
-  <si>
-    <t>若不需履歷的設計方式,要特別標註</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>將於設計階段增加標註</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用帳號、登入驗證碼等資安議題，需告知速達資安風險可能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>均有提出且會列於會議紀錄之中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>將於[異常警示]模組需求訪談中提出討論</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效人員若能成功認證ID/PW， 應將此類錯誤登入訊息記錄於log中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>將再與速達討論訊息內容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入紀錄分為2筆，此類狀況即表示僅有驗證成功而無生失效成功Log，以現有Log即可查得</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能分析</t>
-  </si>
-  <si>
-    <t>業譚</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>將列於保存期限需求中，如保存要求為5年，需請Infra於規劃時納入考量，有需要Infra應再向速達提出</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4189,13 +4253,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4548,7 +4612,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
@@ -4575,7 +4639,7 @@
       <c r="E2" s="145"/>
       <c r="F2" s="145"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
@@ -4586,7 +4650,7 @@
       <c r="E3" s="145"/>
       <c r="F3" s="145"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
@@ -4597,7 +4661,7 @@
       <c r="E4" s="145"/>
       <c r="F4" s="145"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4608,7 +4672,7 @@
       <c r="E5" s="147"/>
       <c r="F5" s="147"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
       <c r="A6" s="141" t="s">
         <v>56</v>
       </c>
@@ -4618,7 +4682,7 @@
       <c r="E6" s="142"/>
       <c r="F6" s="143"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4638,7 +4702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="16.399999999999999">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -4806,13 +4870,13 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P14:P15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
@@ -4833,7 +4897,7 @@
     <col min="23" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="50" t="s">
         <v>35</v>
@@ -4855,7 +4919,7 @@
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
+    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
       <c r="A2" s="55"/>
       <c r="B2" s="50" t="s">
         <v>36</v>
@@ -4877,7 +4941,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
       <c r="A3" s="55"/>
       <c r="B3" s="50" t="s">
         <v>37</v>
@@ -4899,7 +4963,7 @@
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
     </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:20" s="102" customFormat="1" ht="33.049999999999997" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>282</v>
@@ -4931,34 +4995,34 @@
       <c r="O4" s="62"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.3" customHeight="1">
       <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>37.333333333333329</v>
+        <v>57.333333333333321</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4969,7 +5033,7 @@
       <c r="O5" s="62"/>
       <c r="P5" s="58"/>
     </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
+    <row r="6" spans="1:20" s="58" customFormat="1" ht="49.1">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -5027,7 +5091,7 @@
       <c r="S6" s="107"/>
       <c r="T6" s="107"/>
     </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="33">
+    <row r="7" spans="1:20" s="55" customFormat="1" ht="32.75">
       <c r="A7" s="64" t="s">
         <v>383</v>
       </c>
@@ -5087,9 +5151,9 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="49.5">
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="49.1">
       <c r="A8" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" s="1">
         <f ca="1">IF(A8="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B8,,-1,,),OFFSET(B8,,-1,,)))</f>
@@ -5120,7 +5184,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L8" s="69" t="s">
         <v>382</v>
@@ -5142,11 +5206,11 @@
         <v>SA PM</v>
       </c>
       <c r="Q8" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="49.5">
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="49.1">
       <c r="A9" s="64" t="s">
         <v>383</v>
       </c>
@@ -5158,13 +5222,13 @@
         <v>379</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E9" s="66">
         <v>41528</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G9" s="66">
         <v>41528</v>
@@ -5179,7 +5243,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L9" s="69" t="s">
         <v>382</v>
@@ -5194,56 +5258,78 @@
       </c>
       <c r="O9" s="63">
         <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P9" s="71" t="str">
         <f t="shared" ref="P9" si="1">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="1" t="str">
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="49.1">
+      <c r="A10" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="1">
         <f ca="1">IF(A10="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B10,,-1,,),OFFSET(B10,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70" t="str">
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="66">
+        <v>41534</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" s="66">
+        <v>41534</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0.6875</v>
+      </c>
+      <c r="J10" s="65">
+        <v>8</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="70">
         <f t="shared" ref="M10:M20" si="2">IF(C10="","",J10*(I10-H10)*24)</f>
-        <v/>
-      </c>
-      <c r="N10" s="63" t="str">
-        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
-        <v/>
-      </c>
-      <c r="O10" s="63" t="str">
-        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
-        <v/>
+        <v>19.999999999999993</v>
+      </c>
+      <c r="N10" s="63">
+        <f ca="1">IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v>5</v>
+      </c>
+      <c r="O10" s="63">
+        <f ca="1">IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v>4</v>
       </c>
       <c r="P10" s="71" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q20" ca="1" si="3">IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
-        <v/>
+        <v>SA PM-4</v>
       </c>
       <c r="R10" s="74"/>
     </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A11" s="64"/>
       <c r="B11" s="1" t="str">
         <f ca="1">IF(A11="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B11,,-1,,),OFFSET(B11,,-1,,)))</f>
@@ -5281,7 +5367,7 @@
       </c>
       <c r="R11" s="74"/>
     </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="str">
         <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
@@ -5319,7 +5405,7 @@
       </c>
       <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
@@ -5357,7 +5443,7 @@
       </c>
       <c r="R13" s="74"/>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
@@ -5395,7 +5481,7 @@
       </c>
       <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
@@ -5433,7 +5519,7 @@
       </c>
       <c r="R15" s="74"/>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
@@ -5471,7 +5557,7 @@
       </c>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
+    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
@@ -5509,7 +5595,7 @@
       </c>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
+    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
@@ -5547,7 +5633,7 @@
       </c>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
+    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
@@ -5585,7 +5671,7 @@
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
+    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
@@ -5623,7 +5709,7 @@
       </c>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
+    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
       <c r="A21" s="64"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
@@ -6156,23 +6242,23 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="93" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="94" customWidth="1"/>
     <col min="4" max="4" width="52.875" style="95" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="96" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="93" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="93" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="97" customWidth="1"/>
     <col min="9" max="9" width="13" style="97" customWidth="1"/>
@@ -6186,7 +6272,7 @@
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
@@ -6211,7 +6297,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.75" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.8" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
@@ -6255,7 +6341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>385</v>
       </c>
@@ -6272,10 +6358,10 @@
         <v>386</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H3" s="91">
         <v>41514</v>
@@ -6300,7 +6386,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="38.25" customHeight="1">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="38.299999999999997" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>385</v>
       </c>
@@ -6308,19 +6394,19 @@
         <v>390</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="H4" s="91">
         <v>41515</v>
@@ -6345,27 +6431,27 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="38.25" customHeight="1">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="38.299999999999997" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H5" s="91">
         <v>41523</v>
@@ -6374,7 +6460,7 @@
         <v>41523</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K5" s="89"/>
       <c r="L5" s="90" t="str">
@@ -6386,27 +6472,27 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>404</v>
-      </c>
       <c r="D6" s="43" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H6" s="91">
         <v>41527</v>
@@ -6415,7 +6501,7 @@
         <v>41527</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K6" s="89"/>
       <c r="L6" s="90" t="str">
@@ -6427,27 +6513,27 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="H7" s="91">
         <v>41527</v>
@@ -6456,7 +6542,7 @@
         <v>41527</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K7" s="89"/>
       <c r="L7" s="90" t="str">
@@ -6468,27 +6554,27 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="32.75">
       <c r="A8" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="H8" s="91">
         <v>41527</v>
@@ -6497,7 +6583,7 @@
         <v>41523</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="90" t="str">
@@ -6509,27 +6595,27 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="33">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="32.75">
       <c r="A9" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H9" s="91">
         <v>41527</v>
@@ -6538,7 +6624,7 @@
         <v>41527</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K9" s="89"/>
       <c r="L9" s="90" t="str">
@@ -6552,25 +6638,25 @@
     </row>
     <row r="10" spans="1:18" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H10" s="91">
         <v>41527</v>
@@ -6579,7 +6665,7 @@
         <v>41527</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K10" s="89"/>
       <c r="L10" s="90" t="str">
@@ -6591,27 +6677,27 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H11" s="91">
         <v>41527</v>
@@ -6636,27 +6722,27 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="33">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="32.75">
       <c r="A12" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H12" s="91">
         <v>41527</v>
@@ -6681,27 +6767,27 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="H13" s="91">
         <v>41527</v>
@@ -6726,18 +6812,18 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="33">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="32.75">
       <c r="A14" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>386</v>
@@ -6746,7 +6832,7 @@
         <v>391</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="H14" s="91">
         <v>41527</v>
@@ -6771,26 +6857,28 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="G15" s="46"/>
+        <v>391</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H15" s="91">
         <v>41528</v>
       </c>
@@ -6814,37 +6902,41 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="46"/>
+      <c r="F16" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H16" s="91">
         <v>41531</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="91">
+        <v>41530</v>
+      </c>
       <c r="J16" s="89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K16" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L16" s="90" t="str">
         <f t="shared" si="1"/>
@@ -6855,26 +6947,28 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="46"/>
+      <c r="F17" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H17" s="91">
         <v>41528</v>
       </c>
@@ -6898,26 +6992,28 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="G18" s="44"/>
+      <c r="F18" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>480</v>
+      </c>
       <c r="H18" s="91">
         <v>41528</v>
       </c>
@@ -6941,26 +7037,28 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A19" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>457</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>465</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>482</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>481</v>
+      </c>
       <c r="H19" s="91">
         <v>41528</v>
       </c>
@@ -6984,26 +7082,28 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="G20" s="46"/>
+        <v>391</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H20" s="91">
         <v>41531</v>
       </c>
@@ -7011,15 +7111,15 @@
         <v>41529</v>
       </c>
       <c r="J20" s="89" t="str">
-        <f t="shared" ref="J20:J46" si="5">IF(I20="","","V")</f>
+        <f t="shared" ref="J20:J45" si="5">IF(I20="","","V")</f>
         <v>V</v>
       </c>
       <c r="K20" s="89" t="str">
-        <f t="shared" ref="K20:K46" si="6">IF(OR(J20&lt;&gt;"",C20=""),"","V")</f>
+        <f t="shared" ref="K20:K45" si="6">IF(OR(J20&lt;&gt;"",C20=""),"","V")</f>
         <v/>
       </c>
       <c r="L20" s="90" t="str">
-        <f t="shared" ref="L20:L46" si="7">IF(A20="","",LEFT(A20,FIND("-",A20)-1))</f>
+        <f t="shared" ref="L20:L45" si="7">IF(A20="","",LEFT(A20,FIND("-",A20)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M20" s="90"/>
@@ -7027,18 +7127,18 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>386</v>
@@ -7046,7 +7146,9 @@
       <c r="F21" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H21" s="91">
         <v>41529</v>
       </c>
@@ -7070,26 +7172,28 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="G22" s="46"/>
+        <v>482</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>481</v>
+      </c>
       <c r="H22" s="91">
         <v>41528</v>
       </c>
@@ -7113,26 +7217,28 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>386</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="G23" s="46"/>
+        <v>482</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>481</v>
+      </c>
       <c r="H23" s="91">
         <v>41528</v>
       </c>
@@ -7156,37 +7262,41 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="G24" s="46"/>
+        <v>483</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>480</v>
+      </c>
       <c r="H24" s="91">
         <v>41531</v>
       </c>
-      <c r="I24" s="92"/>
+      <c r="I24" s="92">
+        <v>41530</v>
+      </c>
       <c r="J24" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K24" s="89" t="str">
         <f t="shared" si="6"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L24" s="90" t="str">
         <f t="shared" si="7"/>
@@ -7197,19 +7307,37 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
+    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A25" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" s="92">
+        <v>41534</v>
+      </c>
+      <c r="I25" s="92">
+        <v>41534</v>
+      </c>
       <c r="J25" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7217,26 +7345,44 @@
       </c>
       <c r="L25" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M25" s="90"/>
       <c r="N25" s="36"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
+    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A26" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>483</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="H26" s="92">
+        <v>41534</v>
+      </c>
+      <c r="I26" s="92">
+        <v>41534</v>
+      </c>
       <c r="J26" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K26" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7244,22 +7390,38 @@
       </c>
       <c r="L26" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M26" s="90"/>
       <c r="N26" s="36"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="92"/>
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A27" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="H27" s="92">
+        <v>41540</v>
+      </c>
       <c r="I27" s="92"/>
       <c r="J27" s="89" t="str">
         <f t="shared" si="5"/>
@@ -7267,30 +7429,48 @@
       </c>
       <c r="K27" s="89" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="L27" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M27" s="90"/>
       <c r="N27" s="36"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
+    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A28" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="92">
+        <v>41534</v>
+      </c>
+      <c r="I28" s="92">
+        <v>41534</v>
+      </c>
       <c r="J28" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K28" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7298,26 +7478,44 @@
       </c>
       <c r="L28" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M28" s="90"/>
       <c r="N28" s="36"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="91"/>
+    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A29" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="H29" s="92">
+        <v>41534</v>
+      </c>
+      <c r="I29" s="91">
+        <v>41534</v>
+      </c>
       <c r="J29" s="89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K29" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7325,14 +7523,14 @@
       </c>
       <c r="L29" s="90" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="36"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -7359,7 +7557,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
@@ -7386,7 +7584,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
@@ -7413,7 +7611,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
@@ -7440,7 +7638,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="41"/>
       <c r="C34" s="48"/>
@@ -7467,7 +7665,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48"/>
@@ -7494,7 +7692,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="48"/>
@@ -7521,7 +7719,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48"/>
@@ -7548,7 +7746,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="41"/>
       <c r="C38" s="48"/>
@@ -7575,7 +7773,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48"/>
@@ -7602,7 +7800,7 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="41"/>
       <c r="C40" s="48"/>
@@ -7629,7 +7827,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="48"/>
@@ -7656,7 +7854,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="41"/>
       <c r="C42" s="48"/>
@@ -7683,7 +7881,7 @@
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="41"/>
       <c r="C43" s="48"/>
@@ -7710,7 +7908,7 @@
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="41"/>
       <c r="C44" s="48"/>
@@ -7737,7 +7935,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="48"/>
@@ -7764,7 +7962,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
       <c r="C46" s="48"/>
@@ -7775,15 +7973,15 @@
       <c r="H46" s="92"/>
       <c r="I46" s="91"/>
       <c r="J46" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J46:J54" si="8">IF(I46="","","V")</f>
         <v/>
       </c>
       <c r="K46" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K46:K54" si="9">IF(OR(J46&lt;&gt;"",C46=""),"","V")</f>
         <v/>
       </c>
       <c r="L46" s="90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L46:L54" si="10">IF(A46="","",LEFT(A46,FIND("-",A46)-1))</f>
         <v/>
       </c>
       <c r="M46" s="90"/>
@@ -7791,7 +7989,7 @@
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="48"/>
@@ -7802,15 +8000,15 @@
       <c r="H47" s="92"/>
       <c r="I47" s="91"/>
       <c r="J47" s="89" t="str">
-        <f t="shared" ref="J47:J55" si="8">IF(I47="","","V")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K47" s="89" t="str">
-        <f t="shared" ref="K47:K55" si="9">IF(OR(J47&lt;&gt;"",C47=""),"","V")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L47" s="90" t="str">
-        <f t="shared" ref="L47:L55" si="10">IF(A47="","",LEFT(A47,FIND("-",A47)-1))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M47" s="90"/>
@@ -7818,7 +8016,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A48" s="47"/>
       <c r="B48" s="41"/>
       <c r="C48" s="48"/>
@@ -7845,7 +8043,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A49" s="47"/>
       <c r="B49" s="41"/>
       <c r="C49" s="48"/>
@@ -7872,7 +8070,7 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A50" s="47"/>
       <c r="B50" s="41"/>
       <c r="C50" s="48"/>
@@ -7899,7 +8097,7 @@
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="41"/>
       <c r="C51" s="48"/>
@@ -7926,7 +8124,7 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A52" s="47"/>
       <c r="B52" s="41"/>
       <c r="C52" s="48"/>
@@ -7953,7 +8151,7 @@
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A53" s="47"/>
       <c r="B53" s="41"/>
       <c r="C53" s="48"/>
@@ -7980,7 +8178,7 @@
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A54" s="47"/>
       <c r="B54" s="41"/>
       <c r="C54" s="48"/>
@@ -8007,34 +8205,27 @@
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
     </row>
-    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="89" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K55" s="89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L55" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M55" s="90"/>
-      <c r="N55" s="36"/>
+    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
-    </row>
-    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+    </row>
+    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -8054,7 +8245,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
-    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
@@ -8074,7 +8265,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
@@ -8094,7 +8285,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
@@ -8114,7 +8305,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
@@ -8134,7 +8325,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
@@ -8154,7 +8345,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
@@ -8174,7 +8365,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
@@ -8194,7 +8385,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A64" s="86"/>
       <c r="B64" s="86"/>
       <c r="C64" s="86"/>
@@ -8214,7 +8405,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
@@ -8234,7 +8425,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
@@ -8254,7 +8445,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
@@ -8274,7 +8465,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -8294,7 +8485,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
@@ -8314,7 +8505,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
@@ -8334,7 +8525,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="86"/>
@@ -8354,7 +8545,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -8374,7 +8565,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -8394,7 +8585,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -8414,7 +8605,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -8434,7 +8625,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -8454,7 +8645,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -8474,7 +8665,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -8494,7 +8685,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -8514,7 +8705,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -8534,7 +8725,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -8554,7 +8745,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
@@ -8574,7 +8765,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -8594,7 +8785,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
@@ -8614,7 +8805,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
@@ -8634,7 +8825,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
@@ -8654,7 +8845,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -8674,7 +8865,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -8694,7 +8885,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -8714,7 +8905,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -8734,7 +8925,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -8754,7 +8945,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
@@ -8774,7 +8965,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -8794,7 +8985,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
@@ -8814,7 +9005,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
@@ -8834,7 +9025,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
@@ -8854,7 +9045,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="86"/>
@@ -8874,7 +9065,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="86"/>
@@ -8894,7 +9085,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="C99" s="86"/>
@@ -8914,7 +9105,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="C100" s="86"/>
@@ -8934,7 +9125,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="C101" s="86"/>
@@ -8954,7 +9145,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="C102" s="86"/>
@@ -8974,7 +9165,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A103" s="86"/>
       <c r="B103" s="86"/>
       <c r="C103" s="86"/>
@@ -8994,7 +9185,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -9014,7 +9205,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A105" s="86"/>
       <c r="B105" s="86"/>
       <c r="C105" s="86"/>
@@ -9034,7 +9225,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A106" s="86"/>
       <c r="B106" s="86"/>
       <c r="C106" s="86"/>
@@ -9054,7 +9245,7 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="107" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A107" s="86"/>
       <c r="B107" s="86"/>
       <c r="C107" s="86"/>
@@ -9074,7 +9265,7 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="108" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="108" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A108" s="86"/>
       <c r="B108" s="86"/>
       <c r="C108" s="86"/>
@@ -9094,7 +9285,7 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
     </row>
-    <row r="109" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="109" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
       <c r="A109" s="86"/>
       <c r="B109" s="86"/>
       <c r="C109" s="86"/>
@@ -9114,64 +9305,44 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
     </row>
-    <row r="110" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A110" s="86"/>
-      <c r="B110" s="86"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="88"/>
+    <row r="110" spans="1:18" ht="31.1" customHeight="1">
       <c r="I110" s="88"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-    </row>
-    <row r="111" spans="1:18" ht="31.15" customHeight="1">
+    </row>
+    <row r="111" spans="1:18" ht="31.1" customHeight="1">
       <c r="I111" s="88"/>
     </row>
-    <row r="112" spans="1:18" ht="31.15" customHeight="1">
+    <row r="112" spans="1:18" ht="31.1" customHeight="1">
       <c r="I112" s="88"/>
     </row>
-    <row r="113" spans="9:9" ht="31.15" customHeight="1">
+    <row r="113" spans="9:9" ht="31.1" customHeight="1">
       <c r="I113" s="88"/>
     </row>
-    <row r="114" spans="9:9" ht="31.15" customHeight="1">
+    <row r="114" spans="9:9" ht="31.1" customHeight="1">
       <c r="I114" s="88"/>
     </row>
-    <row r="115" spans="9:9" ht="31.15" customHeight="1">
+    <row r="115" spans="9:9" ht="31.1" customHeight="1">
       <c r="I115" s="88"/>
     </row>
-    <row r="116" spans="9:9" ht="31.15" customHeight="1">
+    <row r="116" spans="9:9" ht="31.1" customHeight="1">
       <c r="I116" s="88"/>
-    </row>
-    <row r="117" spans="9:9" ht="31.15" customHeight="1">
-      <c r="I117" s="88"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56:C66 D67:E110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55:C65 D66:E109">
       <formula1>"需求,分析,資安,設計,測試,規範,SLA,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K54">
       <formula1>"V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A54">
       <formula1>次數選單</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65516">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65515">
       <formula1>植入Bug來源</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65516">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65515">
       <formula1>原因分類</formula1>
     </dataValidation>
   </dataValidations>
@@ -9197,7 +9368,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
@@ -9233,7 +9404,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33">
+    <row r="2" spans="1:9" ht="49.1">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -9256,7 +9427,7 @@
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="33">
+    <row r="3" spans="1:9" ht="32.75">
       <c r="A3" s="138" t="s">
         <v>354</v>
       </c>
@@ -9279,7 +9450,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="33">
+    <row r="4" spans="1:9" ht="32.75">
       <c r="A4" s="139" t="s">
         <v>377</v>
       </c>
@@ -9302,7 +9473,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="49.5">
+    <row r="5" spans="1:9" ht="49.1">
       <c r="A5" s="139" t="s">
         <v>355</v>
       </c>
@@ -9324,7 +9495,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="49.5">
+    <row r="6" spans="1:9" ht="49.1">
       <c r="A6" s="139" t="s">
         <v>356</v>
       </c>
@@ -9346,7 +9517,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.5">
+    <row r="7" spans="1:9" ht="49.1">
       <c r="A7" s="139" t="s">
         <v>358</v>
       </c>
@@ -9390,7 +9561,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.5">
+    <row r="9" spans="1:9" ht="49.1">
       <c r="A9" s="139" t="s">
         <v>360</v>
       </c>
@@ -9558,7 +9729,7 @@
       <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="27" customWidth="1"/>
@@ -9595,7 +9766,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A2" s="30" t="s">
         <v>247</v>
       </c>
@@ -9617,7 +9788,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A3" s="30" t="s">
         <v>247</v>
       </c>
@@ -9639,7 +9810,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A4" s="30" t="s">
         <v>247</v>
       </c>
@@ -9661,7 +9832,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
@@ -9683,7 +9854,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
@@ -9705,7 +9876,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
@@ -9727,7 +9898,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A8" s="30" t="s">
         <v>247</v>
       </c>
@@ -9749,7 +9920,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A9" s="30" t="s">
         <v>247</v>
       </c>
@@ -9771,7 +9942,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A10" s="30" t="s">
         <v>247</v>
       </c>
@@ -9793,7 +9964,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A11" s="30" t="s">
         <v>247</v>
       </c>
@@ -9812,7 +9983,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A12" s="30" t="s">
         <v>247</v>
       </c>
@@ -9834,7 +10005,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A13" s="30" t="s">
         <v>247</v>
       </c>
@@ -9856,7 +10027,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
@@ -9878,7 +10049,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A15" s="30" t="s">
         <v>247</v>
       </c>
@@ -9900,7 +10071,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A16" s="30" t="s">
         <v>247</v>
       </c>
@@ -9922,7 +10093,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A17" s="30" t="s">
         <v>247</v>
       </c>
@@ -9944,7 +10115,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A18" s="30" t="s">
         <v>247</v>
       </c>
@@ -9966,7 +10137,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A19" s="30" t="s">
         <v>247</v>
       </c>
@@ -9985,7 +10156,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A20" s="30" t="s">
         <v>247</v>
       </c>
@@ -10004,7 +10175,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A21" s="30" t="s">
         <v>247</v>
       </c>
@@ -10026,7 +10197,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -10048,7 +10219,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -10070,7 +10241,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -10158,7 +10329,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A28" s="30" t="s">
         <v>247</v>
       </c>
@@ -10224,7 +10395,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A31" s="30" t="s">
         <v>247</v>
       </c>
@@ -10312,7 +10483,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="23" customFormat="1">
+    <row r="35" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A35" s="30" t="s">
         <v>247</v>
       </c>
@@ -10334,7 +10505,7 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1">
+    <row r="36" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
@@ -10356,7 +10527,7 @@
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="32.75">
       <c r="A37" s="30" t="s">
         <v>247</v>
       </c>
@@ -10371,7 +10542,7 @@
       </c>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="32.75">
       <c r="A38" s="30" t="s">
         <v>247</v>
       </c>
@@ -10386,7 +10557,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="32.75">
       <c r="A39" s="30" t="s">
         <v>247</v>
       </c>
@@ -10401,7 +10572,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="32.75">
       <c r="A40" s="30" t="s">
         <v>247</v>
       </c>
@@ -10417,7 +10588,7 @@
       <c r="E40" s="26"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="32.75">
       <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
@@ -10432,7 +10603,7 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="33">
+    <row r="42" spans="1:12" ht="32.75">
       <c r="A42" s="30" t="s">
         <v>247</v>
       </c>
@@ -10447,7 +10618,7 @@
       </c>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="32.75">
       <c r="A43" s="30" t="s">
         <v>247</v>
       </c>
@@ -10462,7 +10633,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="32.75">
       <c r="A44" s="30" t="s">
         <v>247</v>
       </c>
@@ -10477,7 +10648,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="32.75">
       <c r="A45" s="30" t="s">
         <v>247</v>
       </c>
@@ -10492,7 +10663,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="32.75">
       <c r="A46" s="30" t="s">
         <v>247</v>
       </c>
@@ -10574,7 +10745,7 @@
       </c>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="32.75">
       <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
@@ -10619,7 +10790,7 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:12" ht="33">
+    <row r="54" spans="1:12" ht="32.75">
       <c r="A54" s="30" t="s">
         <v>247</v>
       </c>
@@ -10720,7 +10891,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A60" s="30" t="s">
         <v>247</v>
       </c>
@@ -10783,7 +10954,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A63" s="30" t="s">
         <v>247</v>
       </c>
@@ -10805,7 +10976,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1" ht="33">
+    <row r="64" spans="1:12" s="23" customFormat="1" ht="32.75">
       <c r="A64" s="30" t="s">
         <v>247</v>
       </c>
@@ -10940,7 +11111,7 @@
       </c>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" ht="32.75">
       <c r="A72" s="30" t="s">
         <v>247</v>
       </c>
@@ -10955,7 +11126,7 @@
       </c>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="32.75">
       <c r="A73" s="30" t="s">
         <v>247</v>
       </c>
@@ -10977,7 +11148,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="32.75">
       <c r="A74" s="30" t="s">
         <v>247</v>
       </c>
@@ -11096,7 +11267,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="33" hidden="1">
+    <row r="80" spans="1:12" ht="32.75" hidden="1">
       <c r="A80" s="30" t="s">
         <v>248</v>
       </c>
@@ -11118,7 +11289,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="1:12" ht="33" hidden="1">
+    <row r="81" spans="1:12" ht="49.1" hidden="1">
       <c r="A81" s="30" t="s">
         <v>248</v>
       </c>
@@ -11140,7 +11311,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="1:12" ht="99" hidden="1">
+    <row r="82" spans="1:12" ht="98.2" hidden="1">
       <c r="A82" s="30" t="s">
         <v>248</v>
       </c>
@@ -11162,7 +11333,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="1:12" ht="33" hidden="1">
+    <row r="83" spans="1:12" ht="32.75" hidden="1">
       <c r="A83" s="30" t="s">
         <v>248</v>
       </c>
@@ -11178,7 +11349,7 @@
       <c r="E83" s="26"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12" ht="32.75" hidden="1">
       <c r="A84" s="30" t="s">
         <v>248</v>
       </c>
@@ -11194,7 +11365,7 @@
       <c r="E84" s="26"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="33" hidden="1">
+    <row r="85" spans="1:12" ht="32.75" hidden="1">
       <c r="A85" s="30" t="s">
         <v>248</v>
       </c>
@@ -11210,7 +11381,7 @@
       <c r="E85" s="26"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="33" hidden="1">
+    <row r="86" spans="1:12" ht="32.75" hidden="1">
       <c r="A86" s="30" t="s">
         <v>248</v>
       </c>
@@ -11232,7 +11403,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" ht="33" hidden="1">
+    <row r="87" spans="1:12" ht="32.75" hidden="1">
       <c r="A87" s="30" t="s">
         <v>248</v>
       </c>
@@ -11254,7 +11425,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="1:12" ht="33" hidden="1">
+    <row r="88" spans="1:12" ht="32.75" hidden="1">
       <c r="A88" s="30" t="s">
         <v>248</v>
       </c>
@@ -11276,7 +11447,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="1:12" ht="33" hidden="1">
+    <row r="89" spans="1:12" ht="32.75" hidden="1">
       <c r="A89" s="30" t="s">
         <v>248</v>
       </c>
@@ -11298,7 +11469,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="1:12" ht="33" hidden="1">
+    <row r="90" spans="1:12" ht="32.75" hidden="1">
       <c r="A90" s="30" t="s">
         <v>248</v>
       </c>
@@ -11320,7 +11491,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="1:12" ht="33" hidden="1">
+    <row r="91" spans="1:12" ht="32.75" hidden="1">
       <c r="A91" s="30" t="s">
         <v>248</v>
       </c>
@@ -11342,7 +11513,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="1:12" ht="33" hidden="1">
+    <row r="92" spans="1:12" ht="32.75" hidden="1">
       <c r="A92" s="30" t="s">
         <v>248</v>
       </c>
@@ -11364,7 +11535,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="1:12" ht="66" hidden="1">
+    <row r="93" spans="1:12" ht="65.45" hidden="1">
       <c r="A93" s="30" t="s">
         <v>248</v>
       </c>
@@ -11386,7 +11557,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12" ht="66" hidden="1">
+    <row r="94" spans="1:12" ht="81.849999999999994" hidden="1">
       <c r="A94" s="30" t="s">
         <v>248</v>
       </c>
@@ -11408,7 +11579,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="1:12" ht="82.5" hidden="1">
+    <row r="95" spans="1:12" ht="114.55" hidden="1">
       <c r="A95" s="30" t="s">
         <v>248</v>
       </c>
@@ -11430,7 +11601,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="1:12" ht="66" hidden="1">
+    <row r="96" spans="1:12" ht="81.849999999999994" hidden="1">
       <c r="A96" s="30" t="s">
         <v>248</v>
       </c>
@@ -11452,7 +11623,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="1:12" ht="66" hidden="1">
+    <row r="97" spans="1:12" ht="81.849999999999994" hidden="1">
       <c r="A97" s="30" t="s">
         <v>248</v>
       </c>
@@ -11474,7 +11645,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="1:12" ht="49.5" hidden="1">
+    <row r="98" spans="1:12" ht="65.45" hidden="1">
       <c r="A98" s="30" t="s">
         <v>248</v>
       </c>
@@ -11496,7 +11667,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="1:12" ht="66" hidden="1">
+    <row r="99" spans="1:12" ht="65.45" hidden="1">
       <c r="A99" s="30" t="s">
         <v>248</v>
       </c>
@@ -11518,7 +11689,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12" ht="32.75" hidden="1">
       <c r="A100" s="30" t="s">
         <v>248</v>
       </c>
@@ -11540,7 +11711,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" ht="49.5" hidden="1">
+    <row r="101" spans="1:12" ht="65.45" hidden="1">
       <c r="A101" s="30" t="s">
         <v>248</v>
       </c>
@@ -11562,7 +11733,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" ht="49.5" hidden="1">
+    <row r="102" spans="1:12" ht="65.45" hidden="1">
       <c r="A102" s="30" t="s">
         <v>248</v>
       </c>
@@ -11584,7 +11755,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" ht="33" hidden="1">
+    <row r="103" spans="1:12" ht="49.1" hidden="1">
       <c r="A103" s="30" t="s">
         <v>248</v>
       </c>
@@ -11606,7 +11777,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" ht="33" hidden="1">
+    <row r="104" spans="1:12" ht="32.75" hidden="1">
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
@@ -11644,7 +11815,7 @@
       <c r="E105" s="26"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="49.5" hidden="1">
+    <row r="106" spans="1:12" ht="49.1" hidden="1">
       <c r="A106" s="30" t="s">
         <v>248</v>
       </c>
@@ -11754,7 +11925,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="1:12" ht="165" hidden="1">
+    <row r="111" spans="1:12" ht="163.65" hidden="1">
       <c r="A111" s="30" t="s">
         <v>249</v>
       </c>
@@ -11769,7 +11940,7 @@
       </c>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:12" ht="33" hidden="1">
+    <row r="112" spans="1:12" ht="32.75" hidden="1">
       <c r="A112" s="30" t="s">
         <v>249</v>
       </c>
@@ -11784,7 +11955,7 @@
       </c>
       <c r="E112" s="26"/>
     </row>
-    <row r="113" spans="1:5" ht="33" hidden="1">
+    <row r="113" spans="1:5" ht="32.75" hidden="1">
       <c r="A113" s="30" t="s">
         <v>249</v>
       </c>
@@ -11799,7 +11970,7 @@
       </c>
       <c r="E113" s="26"/>
     </row>
-    <row r="114" spans="1:5" ht="33" hidden="1">
+    <row r="114" spans="1:5" ht="32.75" hidden="1">
       <c r="A114" s="30" t="s">
         <v>249</v>
       </c>
@@ -11814,7 +11985,7 @@
       </c>
       <c r="E114" s="26"/>
     </row>
-    <row r="115" spans="1:5" ht="33" hidden="1">
+    <row r="115" spans="1:5" ht="32.75" hidden="1">
       <c r="A115" s="30" t="s">
         <v>249</v>
       </c>
@@ -11829,7 +12000,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="33" hidden="1">
+    <row r="116" spans="1:5" ht="32.75" hidden="1">
       <c r="A116" s="30" t="s">
         <v>249</v>
       </c>
@@ -11844,7 +12015,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="33" hidden="1">
+    <row r="117" spans="1:5" ht="32.75" hidden="1">
       <c r="A117" s="30" t="s">
         <v>249</v>
       </c>
@@ -11859,7 +12030,7 @@
       </c>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="33" hidden="1">
+    <row r="118" spans="1:5" ht="32.75" hidden="1">
       <c r="A118" s="30" t="s">
         <v>249</v>
       </c>
@@ -11874,7 +12045,7 @@
       </c>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="66" hidden="1">
+    <row r="119" spans="1:5" ht="65.45" hidden="1">
       <c r="A119" s="30" t="s">
         <v>249</v>
       </c>
@@ -11889,7 +12060,7 @@
       </c>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="66" hidden="1">
+    <row r="120" spans="1:5" ht="81.849999999999994" hidden="1">
       <c r="A120" s="30" t="s">
         <v>249</v>
       </c>
@@ -11904,7 +12075,7 @@
       </c>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="82.5" hidden="1">
+    <row r="121" spans="1:5" ht="114.55" hidden="1">
       <c r="A121" s="30" t="s">
         <v>249</v>
       </c>
@@ -11919,7 +12090,7 @@
       </c>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="66" hidden="1">
+    <row r="122" spans="1:5" ht="81.849999999999994" hidden="1">
       <c r="A122" s="30" t="s">
         <v>249</v>
       </c>
@@ -11934,7 +12105,7 @@
       </c>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="49.5" hidden="1">
+    <row r="123" spans="1:5" ht="65.45" hidden="1">
       <c r="A123" s="30" t="s">
         <v>249</v>
       </c>
@@ -11949,7 +12120,7 @@
       </c>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="49.5" hidden="1">
+    <row r="124" spans="1:5" ht="65.45" hidden="1">
       <c r="A124" s="30" t="s">
         <v>249</v>
       </c>
@@ -11964,7 +12135,7 @@
       </c>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="33" hidden="1">
+    <row r="125" spans="1:5" ht="32.75" hidden="1">
       <c r="A125" s="30" t="s">
         <v>249</v>
       </c>
@@ -11979,7 +12150,7 @@
       </c>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="33" hidden="1">
+    <row r="126" spans="1:5" ht="32.75" hidden="1">
       <c r="A126" s="30" t="s">
         <v>249</v>
       </c>
@@ -11994,7 +12165,7 @@
       </c>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="33" hidden="1">
+    <row r="127" spans="1:5" ht="32.75" hidden="1">
       <c r="A127" s="30" t="s">
         <v>249</v>
       </c>
@@ -12009,7 +12180,7 @@
       </c>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="99" hidden="1">
+    <row r="128" spans="1:5" ht="98.2" hidden="1">
       <c r="A128" s="30" t="s">
         <v>249</v>
       </c>
@@ -12024,7 +12195,7 @@
       </c>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="66" hidden="1">
+    <row r="129" spans="1:5" ht="65.45" hidden="1">
       <c r="A129" s="30" t="s">
         <v>249</v>
       </c>
@@ -12039,7 +12210,7 @@
       </c>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" ht="49.5" hidden="1">
+    <row r="130" spans="1:5" ht="49.1" hidden="1">
       <c r="A130" s="30" t="s">
         <v>249</v>
       </c>
@@ -12054,7 +12225,7 @@
       </c>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" ht="33" hidden="1">
+    <row r="131" spans="1:5" ht="32.75" hidden="1">
       <c r="A131" s="30" t="s">
         <v>249</v>
       </c>
@@ -12069,7 +12240,7 @@
       </c>
       <c r="E131" s="26"/>
     </row>
-    <row r="132" spans="1:5" ht="49.5" hidden="1">
+    <row r="132" spans="1:5" ht="49.1" hidden="1">
       <c r="A132" s="30" t="s">
         <v>249</v>
       </c>
@@ -12084,7 +12255,7 @@
       </c>
       <c r="E132" s="26"/>
     </row>
-    <row r="133" spans="1:5" ht="82.5" hidden="1">
+    <row r="133" spans="1:5" ht="81.849999999999994" hidden="1">
       <c r="A133" s="30" t="s">
         <v>249</v>
       </c>
@@ -12099,7 +12270,7 @@
       </c>
       <c r="E133" s="26"/>
     </row>
-    <row r="134" spans="1:5" ht="33" hidden="1">
+    <row r="134" spans="1:5" ht="32.75" hidden="1">
       <c r="A134" s="30" t="s">
         <v>249</v>
       </c>
@@ -12114,7 +12285,7 @@
       </c>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="33" hidden="1">
+    <row r="135" spans="1:5" ht="32.75" hidden="1">
       <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
@@ -12129,7 +12300,7 @@
       </c>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="33" hidden="1">
+    <row r="136" spans="1:5" ht="49.1" hidden="1">
       <c r="A136" s="30" t="s">
         <v>249</v>
       </c>
@@ -12144,7 +12315,7 @@
       </c>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="49.5" hidden="1">
+    <row r="137" spans="1:5" ht="49.1" hidden="1">
       <c r="A137" s="30" t="s">
         <v>249</v>
       </c>
@@ -12159,7 +12330,7 @@
       </c>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="49.5" hidden="1">
+    <row r="138" spans="1:5" ht="49.1" hidden="1">
       <c r="A138" s="30" t="s">
         <v>249</v>
       </c>
@@ -12174,7 +12345,7 @@
       </c>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="66" hidden="1">
+    <row r="139" spans="1:5" ht="65.45" hidden="1">
       <c r="A139" s="30" t="s">
         <v>249</v>
       </c>
@@ -12189,7 +12360,7 @@
       </c>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="66" hidden="1">
+    <row r="140" spans="1:5" ht="65.45" hidden="1">
       <c r="A140" s="30" t="s">
         <v>249</v>
       </c>
@@ -12204,7 +12375,7 @@
       </c>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="99" hidden="1">
+    <row r="141" spans="1:5" ht="114.55" hidden="1">
       <c r="A141" s="30" t="s">
         <v>249</v>
       </c>
@@ -12219,7 +12390,7 @@
       </c>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="33" hidden="1">
+    <row r="142" spans="1:5" ht="49.1" hidden="1">
       <c r="A142" s="30" t="s">
         <v>249</v>
       </c>
@@ -12234,7 +12405,7 @@
       </c>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="33" hidden="1">
+    <row r="143" spans="1:5" ht="49.1" hidden="1">
       <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
@@ -12249,7 +12420,7 @@
       </c>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="33" hidden="1">
+    <row r="144" spans="1:5" ht="32.75" hidden="1">
       <c r="A144" s="30" t="s">
         <v>249</v>
       </c>
@@ -12264,7 +12435,7 @@
       </c>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="49.5" hidden="1">
+    <row r="145" spans="1:5" ht="49.1" hidden="1">
       <c r="A145" s="30" t="s">
         <v>249</v>
       </c>
@@ -12279,7 +12450,7 @@
       </c>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="49.5" hidden="1">
+    <row r="146" spans="1:5" ht="49.1" hidden="1">
       <c r="A146" s="30" t="s">
         <v>249</v>
       </c>
@@ -12294,7 +12465,7 @@
       </c>
       <c r="E146" s="26"/>
     </row>
-    <row r="147" spans="1:5" ht="33" hidden="1">
+    <row r="147" spans="1:5" ht="32.75" hidden="1">
       <c r="A147" s="30" t="s">
         <v>249</v>
       </c>
@@ -12309,7 +12480,7 @@
       </c>
       <c r="E147" s="26"/>
     </row>
-    <row r="148" spans="1:5" ht="33" hidden="1">
+    <row r="148" spans="1:5" ht="32.75" hidden="1">
       <c r="A148" s="30" t="s">
         <v>249</v>
       </c>
@@ -12324,7 +12495,7 @@
       </c>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="1:5" ht="33" hidden="1">
+    <row r="149" spans="1:5" ht="32.75" hidden="1">
       <c r="A149" s="30" t="s">
         <v>249</v>
       </c>
@@ -12339,7 +12510,7 @@
       </c>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="33" hidden="1">
+    <row r="150" spans="1:5" ht="32.75" hidden="1">
       <c r="A150" s="30" t="s">
         <v>249</v>
       </c>
@@ -12354,7 +12525,7 @@
       </c>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="49.5" hidden="1">
+    <row r="151" spans="1:5" ht="49.1" hidden="1">
       <c r="A151" s="30" t="s">
         <v>249</v>
       </c>
@@ -12369,7 +12540,7 @@
       </c>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="66" hidden="1">
+    <row r="152" spans="1:5" ht="65.45" hidden="1">
       <c r="A152" s="30" t="s">
         <v>249</v>
       </c>
@@ -12384,7 +12555,7 @@
       </c>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="66" hidden="1">
+    <row r="153" spans="1:5" ht="65.45" hidden="1">
       <c r="A153" s="30" t="s">
         <v>249</v>
       </c>
@@ -12399,7 +12570,7 @@
       </c>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="49.5" hidden="1">
+    <row r="154" spans="1:5" ht="49.1" hidden="1">
       <c r="A154" s="30" t="s">
         <v>249</v>
       </c>
@@ -12414,7 +12585,7 @@
       </c>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="66" hidden="1">
+    <row r="155" spans="1:5" ht="65.45" hidden="1">
       <c r="A155" s="30" t="s">
         <v>249</v>
       </c>
@@ -12429,7 +12600,7 @@
       </c>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="66" hidden="1">
+    <row r="156" spans="1:5" ht="65.45" hidden="1">
       <c r="A156" s="30" t="s">
         <v>249</v>
       </c>
@@ -12444,7 +12615,7 @@
       </c>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="66" hidden="1">
+    <row r="157" spans="1:5" ht="65.45" hidden="1">
       <c r="A157" s="30" t="s">
         <v>249</v>
       </c>
@@ -12459,7 +12630,7 @@
       </c>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="66" hidden="1">
+    <row r="158" spans="1:5" ht="65.45" hidden="1">
       <c r="A158" s="30" t="s">
         <v>249</v>
       </c>
@@ -12474,7 +12645,7 @@
       </c>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="132" hidden="1">
+    <row r="159" spans="1:5" ht="130.94999999999999" hidden="1">
       <c r="A159" s="30" t="s">
         <v>249</v>
       </c>
@@ -12489,7 +12660,7 @@
       </c>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="66" hidden="1">
+    <row r="160" spans="1:5" ht="65.45" hidden="1">
       <c r="A160" s="30" t="s">
         <v>249</v>
       </c>
@@ -12504,7 +12675,7 @@
       </c>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5" ht="32.75" hidden="1">
       <c r="A161" s="30" t="s">
         <v>250</v>
       </c>
@@ -12519,7 +12690,7 @@
       </c>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5" ht="32.75" hidden="1">
       <c r="A162" s="30" t="s">
         <v>250</v>
       </c>
@@ -12534,7 +12705,7 @@
       </c>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5" ht="32.75" hidden="1">
       <c r="A163" s="30" t="s">
         <v>250</v>
       </c>
@@ -12549,7 +12720,7 @@
       </c>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5" ht="32.75" hidden="1">
       <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
@@ -12564,7 +12735,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5" ht="32.75" hidden="1">
       <c r="A165" s="30" t="s">
         <v>250</v>
       </c>
@@ -12579,7 +12750,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5" ht="32.75" hidden="1">
       <c r="A166" s="30" t="s">
         <v>250</v>
       </c>
@@ -12594,7 +12765,7 @@
       </c>
       <c r="E166" s="26"/>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5" ht="32.75" hidden="1">
       <c r="A167" s="30" t="s">
         <v>250</v>
       </c>
@@ -12609,7 +12780,7 @@
       </c>
       <c r="E167" s="26"/>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5" ht="32.75" hidden="1">
       <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
@@ -12624,7 +12795,7 @@
       </c>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5" ht="32.75" hidden="1">
       <c r="A169" s="30" t="s">
         <v>250</v>
       </c>
@@ -12639,7 +12810,7 @@
       </c>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5" ht="32.75" hidden="1">
       <c r="A170" s="30" t="s">
         <v>250</v>
       </c>
@@ -12654,7 +12825,7 @@
       </c>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5" ht="32.75" hidden="1">
       <c r="A171" s="30" t="s">
         <v>250</v>
       </c>
@@ -12669,7 +12840,7 @@
       </c>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5" ht="32.75" hidden="1">
       <c r="A172" s="30" t="s">
         <v>250</v>
       </c>
@@ -12684,7 +12855,7 @@
       </c>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5" ht="32.75" hidden="1">
       <c r="A173" s="30" t="s">
         <v>250</v>
       </c>
@@ -12756,7 +12927,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
@@ -12780,7 +12951,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="123" t="s">
         <v>344</v>
       </c>
@@ -12797,7 +12968,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="124" t="s">
         <v>311</v>
@@ -12829,7 +13000,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="128"/>
       <c r="B5" s="129" t="s">
         <v>338</v>
@@ -12844,7 +13015,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="128"/>
       <c r="B6" s="130"/>
       <c r="C6" s="125">
@@ -12857,7 +13028,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="128"/>
       <c r="B7" s="130"/>
       <c r="C7" s="125">
@@ -12870,7 +13041,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="131"/>
       <c r="C8" s="125">
@@ -12883,7 +13054,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129" t="s">
         <v>339</v>
@@ -12898,7 +13069,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="125">
@@ -12911,7 +13082,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="125">
@@ -12924,7 +13095,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="125">
@@ -12937,7 +13108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="128"/>
       <c r="B13" s="131"/>
       <c r="C13" s="125">
@@ -12950,7 +13121,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="128"/>
       <c r="B14" s="129" t="s">
         <v>349</v>
@@ -12965,7 +13136,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="125">
@@ -12978,7 +13149,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="125">
@@ -12991,7 +13162,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="128"/>
       <c r="B17" s="133"/>
       <c r="C17" s="125">
@@ -13004,7 +13175,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="134"/>
       <c r="C18" s="125">
@@ -13017,7 +13188,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="128"/>
       <c r="B19" s="129" t="s">
         <v>340</v>
@@ -13032,7 +13203,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="125">
@@ -13045,7 +13216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="131"/>
       <c r="C21" s="125">
@@ -13058,7 +13229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129" t="s">
         <v>323</v>
@@ -13073,7 +13244,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="134"/>
       <c r="C23" s="125">
@@ -13086,7 +13257,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="124" t="s">
         <v>324</v>
@@ -13101,7 +13272,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A25" s="135"/>
       <c r="B25" s="124" t="s">
         <v>326</v>
@@ -13116,7 +13287,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>327</v>
       </c>
@@ -13133,7 +13304,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="132" t="s">
         <v>329</v>
